--- a/databricks/report-distribution/template.xlsx
+++ b/databricks/report-distribution/template.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\infinigate\inf-edw\databricks\gold\ops_reporting\LOADING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\infinigate\inf-edw\databricks\report-distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A6D05-20DD-4FB9-A520-A804A36771DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE39AE-E7FC-4872-810B-3B64B48EC15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report name" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'report name'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'report name'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,10 +33,10 @@
     <t>Report name</t>
   </si>
   <si>
-    <t>Report Period From dd/mm/yyyy To dd//mm/yyyy</t>
+    <t>Column</t>
   </si>
   <si>
-    <t>Column</t>
+    <t>Report Period From dd/mm/yyyy To dd/mm/yyyy</t>
   </si>
 </sst>
 </file>
@@ -129,6 +129,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -136,7 +137,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,7 +234,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>164439</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>414070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -552,11 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z540"/>
+  <dimension ref="A1:Z536"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,104 +586,97 @@
     <col min="26" max="26" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:26" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="539" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="A2:U3"/>
-    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:U2"/>
+    <mergeCell ref="A3:V3"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.41809606299213" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -698,15 +690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="7bd4ce7e-cba9-48a6-992b-7e45f25ca20a" xsi:nil="true"/>
@@ -715,6 +698,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,20 +939,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2BEDF9-6236-4356-ABDB-9F8FEE2A0C46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199C7029-548F-4CF4-BB48-9785151600EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7bd4ce7e-cba9-48a6-992b-7e45f25ca20a"/>
     <ds:schemaRef ds:uri="b94340e8-fdf1-41dd-b634-3b046c3b3eb5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2BEDF9-6236-4356-ABDB-9F8FEE2A0C46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/databricks/report-distribution/template.xlsx
+++ b/databricks/report-distribution/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\infinigate\inf-edw\databricks\report-distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FE39AE-E7FC-4872-810B-3B64B48EC15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52D16CF-D404-466E-B792-03F823107EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report name" sheetId="1" r:id="rId1"/>
@@ -224,18 +224,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>164439</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>414070</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640689</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -246,7 +246,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
@@ -255,12 +257,16 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="66675"/>
+          <a:ext cx="1993239" cy="414070"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -555,35 +561,13 @@
   <dimension ref="A1:Z536"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="0.42578125" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0.42578125" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" customWidth="1"/>
-    <col min="26" max="26" width="2.5703125" customWidth="1"/>
+    <col min="1" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,6 +674,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="7bd4ce7e-cba9-48a6-992b-7e45f25ca20a" xsi:nil="true"/>
@@ -698,15 +691,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,20 +923,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2BEDF9-6236-4356-ABDB-9F8FEE2A0C46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{199C7029-548F-4CF4-BB48-9785151600EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7bd4ce7e-cba9-48a6-992b-7e45f25ca20a"/>
     <ds:schemaRef ds:uri="b94340e8-fdf1-41dd-b634-3b046c3b3eb5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2BEDF9-6236-4356-ABDB-9F8FEE2A0C46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
